--- a/CaVaTeCo/form_y_faqs.xlsx
+++ b/CaVaTeCo/form_y_faqs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C63764-26EC-4935-82D4-CF517C4288B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA93507-63A4-4814-ACC7-DFF209A66205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -381,9 +381,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>Selecionar o seu nome:</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
@@ -1598,11 +1598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1732,7 +1732,7 @@
         <v>109</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="M9" s="39"/>
       <c r="O9" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="39"/>
     </row>
@@ -1810,7 +1810,7 @@
         <v>115</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>20</v>
@@ -1818,19 +1818,19 @@
     </row>
     <row r="14" spans="1:16" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>117</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>118</v>
       </c>
       <c r="J14" s="52" t="s">
         <v>20</v>
@@ -1841,10 +1841,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>20</v>
@@ -6962,12 +6962,12 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6980,7 +6980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -7019,7 +7019,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="44">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="43" t="s">
